--- a/database/industries/siman/sekhash/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhash/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B475488D-A141-475E-A080-71F6EE6861F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8B437-4934-47C5-A684-FA82DEBA50FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخاش-سیمان‌خاش‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-05-01</t>
-  </si>
-  <si>
-    <t>1399-08-10 (2)</t>
-  </si>
-  <si>
-    <t>1399-10-27</t>
-  </si>
-  <si>
-    <t>1401-02-07 (9)</t>
-  </si>
-  <si>
-    <t>1400-05-09 (2)</t>
-  </si>
-  <si>
-    <t>1400-08-25 (2)</t>
-  </si>
-  <si>
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-07-28 (5)</t>
+    <t>1401-10-29 (7)</t>
   </si>
   <si>
     <t>1401-04-26 (2)</t>
   </si>
   <si>
-    <t>1401-07-28</t>
+    <t>1401-08-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>15547</v>
+        <v>213585</v>
       </c>
       <c r="E12" s="15">
-        <v>36151</v>
+        <v>118011</v>
       </c>
       <c r="F12" s="15">
-        <v>61184</v>
+        <v>367381</v>
       </c>
       <c r="G12" s="15">
-        <v>76456</v>
+        <v>221193</v>
       </c>
       <c r="H12" s="15">
-        <v>228797</v>
-      </c>
-      <c r="I12" s="15">
-        <v>192186</v>
-      </c>
-      <c r="J12" s="15">
-        <v>213585</v>
-      </c>
-      <c r="K12" s="15">
-        <v>118011</v>
-      </c>
-      <c r="L12" s="15">
-        <v>367381</v>
-      </c>
-      <c r="M12" s="15">
-        <v>221193</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>289341</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>515656</v>
+        <v>646156</v>
       </c>
       <c r="E13" s="11">
-        <v>395656</v>
+        <v>698811</v>
       </c>
       <c r="F13" s="11">
-        <v>339656</v>
+        <v>543811</v>
       </c>
       <c r="G13" s="11">
-        <v>396156</v>
+        <v>555052</v>
       </c>
       <c r="H13" s="11">
-        <v>496156</v>
-      </c>
-      <c r="I13" s="11">
-        <v>496156</v>
-      </c>
-      <c r="J13" s="11">
-        <v>646156</v>
-      </c>
-      <c r="K13" s="11">
-        <v>698811</v>
-      </c>
-      <c r="L13" s="11">
-        <v>543811</v>
-      </c>
-      <c r="M13" s="11">
-        <v>523811</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>480194</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>195519</v>
+        <v>110330</v>
       </c>
       <c r="E14" s="15">
-        <v>185360</v>
+        <v>95327</v>
       </c>
       <c r="F14" s="15">
-        <v>307377</v>
+        <v>98786</v>
       </c>
       <c r="G14" s="15">
-        <v>115674</v>
+        <v>128427</v>
       </c>
       <c r="H14" s="15">
-        <v>124936</v>
-      </c>
-      <c r="I14" s="15">
-        <v>172863</v>
-      </c>
-      <c r="J14" s="15">
-        <v>110330</v>
-      </c>
-      <c r="K14" s="15">
-        <v>95327</v>
-      </c>
-      <c r="L14" s="15">
-        <v>98786</v>
-      </c>
-      <c r="M14" s="15">
-        <v>127986</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>98949</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>460068</v>
+        <v>907565</v>
       </c>
       <c r="E15" s="11">
-        <v>520254</v>
+        <v>1151235</v>
       </c>
       <c r="F15" s="11">
-        <v>382473</v>
+        <v>1387037</v>
       </c>
       <c r="G15" s="11">
-        <v>429945</v>
+        <v>1557348</v>
       </c>
       <c r="H15" s="11">
-        <v>449427</v>
-      </c>
-      <c r="I15" s="11">
-        <v>697170</v>
-      </c>
-      <c r="J15" s="11">
-        <v>907565</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1151235</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1387037</v>
-      </c>
-      <c r="M15" s="11">
-        <v>1557348</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1872385</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>43003</v>
+        <v>101463</v>
       </c>
       <c r="E16" s="15">
-        <v>48946</v>
+        <v>200669</v>
       </c>
       <c r="F16" s="15">
-        <v>85484</v>
+        <v>188894</v>
       </c>
       <c r="G16" s="15">
-        <v>213548</v>
+        <v>117700</v>
       </c>
       <c r="H16" s="15">
-        <v>246456</v>
-      </c>
-      <c r="I16" s="15">
-        <v>151785</v>
-      </c>
-      <c r="J16" s="15">
-        <v>101463</v>
-      </c>
-      <c r="K16" s="15">
-        <v>200669</v>
-      </c>
-      <c r="L16" s="15">
-        <v>188894</v>
-      </c>
-      <c r="M16" s="15">
-        <v>117700</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>102638</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1143,7 +961,7 @@
         <v>743</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="G17" s="11">
         <v>743</v>
@@ -1151,133 +969,73 @@
       <c r="H17" s="11">
         <v>743</v>
       </c>
-      <c r="I17" s="11">
-        <v>743</v>
-      </c>
-      <c r="J17" s="11">
-        <v>743</v>
-      </c>
-      <c r="K17" s="11">
-        <v>743</v>
-      </c>
-      <c r="L17" s="11">
-        <v>743</v>
-      </c>
-      <c r="M17" s="11">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1230536</v>
+        <v>1979842</v>
       </c>
       <c r="E18" s="17">
-        <v>1187110</v>
+        <v>2264796</v>
       </c>
       <c r="F18" s="17">
-        <v>1176174</v>
+        <v>2586652</v>
       </c>
       <c r="G18" s="17">
-        <v>1232522</v>
+        <v>2580463</v>
       </c>
       <c r="H18" s="17">
-        <v>1546515</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1710903</v>
-      </c>
-      <c r="J18" s="17">
-        <v>1979842</v>
-      </c>
-      <c r="K18" s="17">
-        <v>2264796</v>
-      </c>
-      <c r="L18" s="17">
-        <v>2586652</v>
-      </c>
-      <c r="M18" s="17">
-        <v>2548781</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2844250</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>15520</v>
+        <v>17961</v>
       </c>
       <c r="E19" s="11">
-        <v>14374</v>
+        <v>22992</v>
       </c>
       <c r="F19" s="11">
-        <v>17914</v>
+        <v>24854</v>
       </c>
       <c r="G19" s="11">
-        <v>16050</v>
+        <v>29373</v>
       </c>
       <c r="H19" s="11">
-        <v>10309</v>
-      </c>
-      <c r="I19" s="11">
-        <v>16646</v>
-      </c>
-      <c r="J19" s="11">
-        <v>17961</v>
-      </c>
-      <c r="K19" s="11">
-        <v>22992</v>
-      </c>
-      <c r="L19" s="11">
-        <v>24854</v>
-      </c>
-      <c r="M19" s="11">
-        <v>29373</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30073</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>4638</v>
       </c>
       <c r="E20" s="15">
-        <v>4638</v>
+        <v>4867</v>
       </c>
       <c r="F20" s="15">
-        <v>50062</v>
+        <v>4867</v>
       </c>
       <c r="G20" s="15">
-        <v>4638</v>
+        <v>4867</v>
       </c>
       <c r="H20" s="15">
-        <v>195546</v>
-      </c>
-      <c r="I20" s="15">
-        <v>4638</v>
-      </c>
-      <c r="J20" s="15">
-        <v>4638</v>
-      </c>
-      <c r="K20" s="15">
         <v>4867</v>
       </c>
-      <c r="L20" s="15">
-        <v>4867</v>
-      </c>
-      <c r="M20" s="15">
-        <v>4867</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,133 +1053,73 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>356535</v>
+        <v>386396</v>
       </c>
       <c r="E22" s="15">
-        <v>347973</v>
+        <v>788445</v>
       </c>
       <c r="F22" s="15">
-        <v>346227</v>
+        <v>1032546</v>
       </c>
       <c r="G22" s="15">
-        <v>354705</v>
+        <v>1215938</v>
       </c>
       <c r="H22" s="15">
-        <v>350867</v>
-      </c>
-      <c r="I22" s="15">
-        <v>373275</v>
-      </c>
-      <c r="J22" s="15">
-        <v>386396</v>
-      </c>
-      <c r="K22" s="15">
-        <v>788445</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1032546</v>
-      </c>
-      <c r="M22" s="15">
-        <v>1215938</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1070967</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>9461</v>
+        <v>18228</v>
       </c>
       <c r="E23" s="11">
-        <v>9455</v>
+        <v>24439</v>
       </c>
       <c r="F23" s="11">
-        <v>9447</v>
+        <v>18232</v>
       </c>
       <c r="G23" s="11">
-        <v>9447</v>
+        <v>30321</v>
       </c>
       <c r="H23" s="11">
-        <v>9607</v>
-      </c>
-      <c r="I23" s="11">
-        <v>18242</v>
-      </c>
-      <c r="J23" s="11">
-        <v>18228</v>
-      </c>
-      <c r="K23" s="11">
-        <v>24439</v>
-      </c>
-      <c r="L23" s="11">
-        <v>18232</v>
-      </c>
-      <c r="M23" s="11">
-        <v>30321</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>28520</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1439,97 +1137,52 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>386154</v>
+        <v>427223</v>
       </c>
       <c r="E26" s="17">
-        <v>376440</v>
+        <v>840743</v>
       </c>
       <c r="F26" s="17">
-        <v>423650</v>
+        <v>1080499</v>
       </c>
       <c r="G26" s="17">
-        <v>384840</v>
+        <v>1280499</v>
       </c>
       <c r="H26" s="17">
-        <v>566329</v>
-      </c>
-      <c r="I26" s="17">
-        <v>412801</v>
-      </c>
-      <c r="J26" s="17">
-        <v>427223</v>
-      </c>
-      <c r="K26" s="17">
-        <v>840743</v>
-      </c>
-      <c r="L26" s="17">
-        <v>1080499</v>
-      </c>
-      <c r="M26" s="17">
-        <v>1280499</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1134427</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1616690</v>
+        <v>2407065</v>
       </c>
       <c r="E27" s="19">
-        <v>1563550</v>
+        <v>3105539</v>
       </c>
       <c r="F27" s="19">
-        <v>1599824</v>
+        <v>3667151</v>
       </c>
       <c r="G27" s="19">
-        <v>1617362</v>
+        <v>3860962</v>
       </c>
       <c r="H27" s="19">
-        <v>2112844</v>
-      </c>
-      <c r="I27" s="19">
-        <v>2123704</v>
-      </c>
-      <c r="J27" s="19">
-        <v>2407065</v>
-      </c>
-      <c r="K27" s="19">
-        <v>3105539</v>
-      </c>
-      <c r="L27" s="19">
-        <v>3667151</v>
-      </c>
-      <c r="M27" s="19">
-        <v>3829280</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3978677</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,231 +1190,136 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>362195</v>
+        <v>388584</v>
       </c>
       <c r="E29" s="15">
-        <v>483705</v>
+        <v>744370</v>
       </c>
       <c r="F29" s="15">
-        <v>414729</v>
+        <v>564897</v>
       </c>
       <c r="G29" s="15">
-        <v>274738</v>
+        <v>692488</v>
       </c>
       <c r="H29" s="15">
-        <v>428652</v>
-      </c>
-      <c r="I29" s="15">
-        <v>419592</v>
-      </c>
-      <c r="J29" s="15">
-        <v>388584</v>
-      </c>
-      <c r="K29" s="15">
-        <v>744370</v>
-      </c>
-      <c r="L29" s="15">
-        <v>564897</v>
-      </c>
-      <c r="M29" s="15">
-        <v>692488</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>925781</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>133278</v>
+        <v>217650</v>
       </c>
       <c r="E31" s="15">
-        <v>123585</v>
+        <v>231734</v>
       </c>
       <c r="F31" s="15">
-        <v>111523</v>
+        <v>213560</v>
       </c>
       <c r="G31" s="15">
-        <v>165289</v>
+        <v>258452</v>
       </c>
       <c r="H31" s="15">
-        <v>148116</v>
-      </c>
-      <c r="I31" s="15">
-        <v>194185</v>
-      </c>
-      <c r="J31" s="15">
-        <v>217650</v>
-      </c>
-      <c r="K31" s="15">
-        <v>231734</v>
-      </c>
-      <c r="L31" s="15">
-        <v>213560</v>
-      </c>
-      <c r="M31" s="15">
-        <v>258452</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>361644</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>175634</v>
+        <v>267592</v>
       </c>
       <c r="E32" s="11">
-        <v>153800</v>
+        <v>208189</v>
       </c>
       <c r="F32" s="11">
-        <v>121480</v>
+        <v>249212</v>
       </c>
       <c r="G32" s="11">
-        <v>117312</v>
+        <v>302473</v>
       </c>
       <c r="H32" s="11">
-        <v>126420</v>
-      </c>
-      <c r="I32" s="11">
-        <v>121244</v>
-      </c>
-      <c r="J32" s="11">
-        <v>267592</v>
-      </c>
-      <c r="K32" s="11">
-        <v>208189</v>
-      </c>
-      <c r="L32" s="11">
-        <v>249212</v>
-      </c>
-      <c r="M32" s="11">
-        <v>302473</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>328276</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>544291</v>
+        <v>35318</v>
       </c>
       <c r="E33" s="15">
-        <v>166310</v>
+        <v>30468</v>
       </c>
       <c r="F33" s="15">
-        <v>63969</v>
+        <v>1482981</v>
       </c>
       <c r="G33" s="15">
-        <v>30624</v>
+        <v>930552</v>
       </c>
       <c r="H33" s="15">
-        <v>734924</v>
-      </c>
-      <c r="I33" s="15">
-        <v>338241</v>
-      </c>
-      <c r="J33" s="15">
-        <v>35318</v>
-      </c>
-      <c r="K33" s="15">
-        <v>30468</v>
-      </c>
-      <c r="L33" s="15">
-        <v>1482981</v>
-      </c>
-      <c r="M33" s="15">
-        <v>930552</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>19839</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>0</v>
+        <v>208828</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>143616</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>199726</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>230302</v>
       </c>
       <c r="H34" s="11">
-        <v>112112</v>
-      </c>
-      <c r="I34" s="11">
-        <v>241765</v>
-      </c>
-      <c r="J34" s="11">
-        <v>208828</v>
-      </c>
-      <c r="K34" s="11">
-        <v>143616</v>
-      </c>
-      <c r="L34" s="11">
-        <v>199726</v>
-      </c>
-      <c r="M34" s="11">
-        <v>230302</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>269921</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1779,25 +1337,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,61 +1358,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>1215398</v>
+        <v>1117972</v>
       </c>
       <c r="E37" s="17">
-        <v>927400</v>
+        <v>1358377</v>
       </c>
       <c r="F37" s="17">
-        <v>711701</v>
+        <v>2710376</v>
       </c>
       <c r="G37" s="17">
-        <v>587963</v>
+        <v>2414267</v>
       </c>
       <c r="H37" s="17">
-        <v>1550224</v>
-      </c>
-      <c r="I37" s="17">
-        <v>1315027</v>
-      </c>
-      <c r="J37" s="17">
-        <v>1117972</v>
-      </c>
-      <c r="K37" s="17">
-        <v>1358377</v>
-      </c>
-      <c r="L37" s="17">
-        <v>2710376</v>
-      </c>
-      <c r="M37" s="17">
-        <v>2414267</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1905461</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1887,61 +1400,31 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1959,133 +1442,73 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>49613</v>
+        <v>70179</v>
       </c>
       <c r="E41" s="15">
-        <v>47914</v>
+        <v>69770</v>
       </c>
       <c r="F41" s="15">
-        <v>50212</v>
+        <v>113008</v>
       </c>
       <c r="G41" s="15">
-        <v>48818</v>
+        <v>116541</v>
       </c>
       <c r="H41" s="15">
-        <v>66392</v>
-      </c>
-      <c r="I41" s="15">
-        <v>68333</v>
-      </c>
-      <c r="J41" s="15">
-        <v>70179</v>
-      </c>
-      <c r="K41" s="15">
-        <v>69770</v>
-      </c>
-      <c r="L41" s="15">
-        <v>113008</v>
-      </c>
-      <c r="M41" s="15">
-        <v>116541</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>120526</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>49613</v>
+        <v>70179</v>
       </c>
       <c r="E42" s="19">
-        <v>47914</v>
+        <v>69770</v>
       </c>
       <c r="F42" s="19">
-        <v>50212</v>
+        <v>113008</v>
       </c>
       <c r="G42" s="19">
-        <v>48818</v>
+        <v>116541</v>
       </c>
       <c r="H42" s="19">
-        <v>66392</v>
-      </c>
-      <c r="I42" s="19">
-        <v>68333</v>
-      </c>
-      <c r="J42" s="19">
-        <v>70179</v>
-      </c>
-      <c r="K42" s="19">
-        <v>69770</v>
-      </c>
-      <c r="L42" s="19">
-        <v>113008</v>
-      </c>
-      <c r="M42" s="19">
-        <v>116541</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>120526</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>1265011</v>
+        <v>1188151</v>
       </c>
       <c r="E43" s="17">
-        <v>975314</v>
+        <v>1428147</v>
       </c>
       <c r="F43" s="17">
-        <v>761913</v>
+        <v>2823384</v>
       </c>
       <c r="G43" s="17">
-        <v>636781</v>
+        <v>2530808</v>
       </c>
       <c r="H43" s="17">
-        <v>1616616</v>
-      </c>
-      <c r="I43" s="17">
-        <v>1383360</v>
-      </c>
-      <c r="J43" s="17">
-        <v>1188151</v>
-      </c>
-      <c r="K43" s="17">
-        <v>1428147</v>
-      </c>
-      <c r="L43" s="17">
-        <v>2823384</v>
-      </c>
-      <c r="M43" s="17">
-        <v>2530808</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2025987</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,15 +1516,10 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2117,27 +1535,12 @@
         <v>125000</v>
       </c>
       <c r="H45" s="15">
-        <v>125000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>125000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>125000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>125000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>125000</v>
-      </c>
-      <c r="M45" s="15">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2183,73 +1571,43 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>75000</v>
-      </c>
-      <c r="M47" s="15">
-        <v>71357</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
-        <v>0</v>
+        <v>-92194</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-74120</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-50442</v>
       </c>
       <c r="G48" s="11">
-        <v>-128891</v>
+        <v>-63080</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>-92194</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-92194</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-74120</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-50442</v>
-      </c>
-      <c r="M48" s="11">
-        <v>-44470</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-100563</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
-        <v>0</v>
+        <v>-40214</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -2263,25 +1621,10 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>-40214</v>
-      </c>
-      <c r="J49" s="15">
-        <v>-40214</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -2299,25 +1642,10 @@
       <c r="H50" s="11">
         <v>12500</v>
       </c>
-      <c r="I50" s="11">
-        <v>12500</v>
-      </c>
-      <c r="J50" s="11">
-        <v>12500</v>
-      </c>
-      <c r="K50" s="11">
-        <v>12500</v>
-      </c>
-      <c r="L50" s="11">
-        <v>12500</v>
-      </c>
-      <c r="M50" s="11">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1663,31 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2407,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>214179</v>
+        <v>1213822</v>
       </c>
       <c r="E56" s="11">
-        <v>450736</v>
+        <v>1614012</v>
       </c>
       <c r="F56" s="11">
-        <v>700411</v>
+        <v>681709</v>
       </c>
       <c r="G56" s="11">
-        <v>971972</v>
+        <v>1180734</v>
       </c>
       <c r="H56" s="11">
-        <v>358728</v>
-      </c>
-      <c r="I56" s="11">
-        <v>735252</v>
-      </c>
-      <c r="J56" s="11">
-        <v>1213822</v>
-      </c>
-      <c r="K56" s="11">
-        <v>1614012</v>
-      </c>
-      <c r="L56" s="11">
-        <v>681709</v>
-      </c>
-      <c r="M56" s="11">
-        <v>1134085</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1840753</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>351679</v>
+        <v>1218914</v>
       </c>
       <c r="E57" s="17">
-        <v>588236</v>
+        <v>1677392</v>
       </c>
       <c r="F57" s="17">
-        <v>837911</v>
+        <v>843767</v>
       </c>
       <c r="G57" s="17">
-        <v>980581</v>
+        <v>1330154</v>
       </c>
       <c r="H57" s="17">
-        <v>496228</v>
-      </c>
-      <c r="I57" s="17">
-        <v>740344</v>
-      </c>
-      <c r="J57" s="17">
-        <v>1218914</v>
-      </c>
-      <c r="K57" s="17">
-        <v>1677392</v>
-      </c>
-      <c r="L57" s="17">
-        <v>843767</v>
-      </c>
-      <c r="M57" s="17">
-        <v>1298472</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1952690</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1616690</v>
+        <v>2407065</v>
       </c>
       <c r="E58" s="19">
-        <v>1563550</v>
+        <v>3105539</v>
       </c>
       <c r="F58" s="19">
-        <v>1599824</v>
+        <v>3667151</v>
       </c>
       <c r="G58" s="19">
-        <v>1617362</v>
+        <v>3860962</v>
       </c>
       <c r="H58" s="19">
-        <v>2112844</v>
-      </c>
-      <c r="I58" s="19">
-        <v>2123704</v>
-      </c>
-      <c r="J58" s="19">
-        <v>2407065</v>
-      </c>
-      <c r="K58" s="19">
-        <v>3105539</v>
-      </c>
-      <c r="L58" s="19">
-        <v>3667151</v>
-      </c>
-      <c r="M58" s="19">
-        <v>3829280</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3978677</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhash/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhash/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8B437-4934-47C5-A684-FA82DEBA50FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF724C7C-9438-4B52-BD07-D9B854C193E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-08-10 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-27</t>
+  </si>
+  <si>
+    <t>1401-02-07 (9)</t>
+  </si>
+  <si>
+    <t>1400-05-09 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-25 (2)</t>
   </si>
   <si>
     <t>1400-10-29</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,122 +945,202 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>36151</v>
+      </c>
+      <c r="E12" s="15">
+        <v>61184</v>
+      </c>
+      <c r="F12" s="15">
+        <v>76456</v>
+      </c>
+      <c r="G12" s="15">
+        <v>228797</v>
+      </c>
+      <c r="H12" s="15">
+        <v>192186</v>
+      </c>
+      <c r="I12" s="15">
         <v>213585</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>118011</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>367381</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>221193</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>289341</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>395656</v>
+      </c>
+      <c r="E13" s="11">
+        <v>339656</v>
+      </c>
+      <c r="F13" s="11">
+        <v>396156</v>
+      </c>
+      <c r="G13" s="11">
+        <v>496156</v>
+      </c>
+      <c r="H13" s="11">
+        <v>496156</v>
+      </c>
+      <c r="I13" s="11">
         <v>646156</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>698811</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>543811</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>555052</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>480194</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>185360</v>
+      </c>
+      <c r="E14" s="15">
+        <v>307377</v>
+      </c>
+      <c r="F14" s="15">
+        <v>115674</v>
+      </c>
+      <c r="G14" s="15">
+        <v>124936</v>
+      </c>
+      <c r="H14" s="15">
+        <v>172863</v>
+      </c>
+      <c r="I14" s="15">
         <v>110330</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>95327</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>98786</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>128427</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>98949</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>520254</v>
+      </c>
+      <c r="E15" s="11">
+        <v>382473</v>
+      </c>
+      <c r="F15" s="11">
+        <v>429945</v>
+      </c>
+      <c r="G15" s="11">
+        <v>449427</v>
+      </c>
+      <c r="H15" s="11">
+        <v>697170</v>
+      </c>
+      <c r="I15" s="11">
         <v>907565</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>1151235</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>1387037</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>1557348</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>1872385</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>48946</v>
+      </c>
+      <c r="E16" s="15">
+        <v>85484</v>
+      </c>
+      <c r="F16" s="15">
+        <v>213548</v>
+      </c>
+      <c r="G16" s="15">
+        <v>246456</v>
+      </c>
+      <c r="H16" s="15">
+        <v>151785</v>
+      </c>
+      <c r="I16" s="15">
         <v>101463</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>200669</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>188894</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>117700</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>102638</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
         <v>743</v>
       </c>
       <c r="E17" s="11">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>743</v>
@@ -969,73 +1151,133 @@
       <c r="H17" s="11">
         <v>743</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>743</v>
+      </c>
+      <c r="J17" s="11">
+        <v>743</v>
+      </c>
+      <c r="K17" s="11">
+        <v>743</v>
+      </c>
+      <c r="L17" s="11">
+        <v>743</v>
+      </c>
+      <c r="M17" s="11">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>1187110</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1176174</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1232522</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1546515</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1710903</v>
+      </c>
+      <c r="I18" s="17">
         <v>1979842</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>2264796</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>2586652</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>2580463</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>2844250</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>14374</v>
+      </c>
+      <c r="E19" s="11">
+        <v>17914</v>
+      </c>
+      <c r="F19" s="11">
+        <v>16050</v>
+      </c>
+      <c r="G19" s="11">
+        <v>10309</v>
+      </c>
+      <c r="H19" s="11">
+        <v>16646</v>
+      </c>
+      <c r="I19" s="11">
         <v>17961</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>22992</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>24854</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>29373</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>30073</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>4638</v>
       </c>
       <c r="E20" s="15">
+        <v>50062</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4638</v>
+      </c>
+      <c r="G20" s="15">
+        <v>195546</v>
+      </c>
+      <c r="H20" s="15">
+        <v>4638</v>
+      </c>
+      <c r="I20" s="15">
+        <v>4638</v>
+      </c>
+      <c r="J20" s="15">
         <v>4867</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>4867</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>4867</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>4867</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,73 +1295,133 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>347973</v>
+      </c>
+      <c r="E22" s="15">
+        <v>346227</v>
+      </c>
+      <c r="F22" s="15">
+        <v>354705</v>
+      </c>
+      <c r="G22" s="15">
+        <v>350867</v>
+      </c>
+      <c r="H22" s="15">
+        <v>373275</v>
+      </c>
+      <c r="I22" s="15">
         <v>386396</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>788445</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>1032546</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>1215938</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>1070967</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>9455</v>
+      </c>
+      <c r="E23" s="11">
+        <v>9447</v>
+      </c>
+      <c r="F23" s="11">
+        <v>9447</v>
+      </c>
+      <c r="G23" s="11">
+        <v>9607</v>
+      </c>
+      <c r="H23" s="11">
+        <v>18242</v>
+      </c>
+      <c r="I23" s="11">
         <v>18228</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>24439</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>18232</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>30321</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>28520</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>376440</v>
+      </c>
+      <c r="E26" s="17">
+        <v>423650</v>
+      </c>
+      <c r="F26" s="17">
+        <v>384840</v>
+      </c>
+      <c r="G26" s="17">
+        <v>566329</v>
+      </c>
+      <c r="H26" s="17">
+        <v>412801</v>
+      </c>
+      <c r="I26" s="17">
         <v>427223</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>840743</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>1080499</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>1280499</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>1134427</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>1563550</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1599824</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1617362</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2112844</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2123704</v>
+      </c>
+      <c r="I27" s="19">
         <v>2407065</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>3105539</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>3667151</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>3860962</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>3978677</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1537,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>483705</v>
+      </c>
+      <c r="E29" s="15">
+        <v>414729</v>
+      </c>
+      <c r="F29" s="15">
+        <v>274738</v>
+      </c>
+      <c r="G29" s="15">
+        <v>428652</v>
+      </c>
+      <c r="H29" s="15">
+        <v>419592</v>
+      </c>
+      <c r="I29" s="15">
         <v>388584</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>744370</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>564897</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>692488</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>925781</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>123585</v>
+      </c>
+      <c r="E31" s="15">
+        <v>111523</v>
+      </c>
+      <c r="F31" s="15">
+        <v>165289</v>
+      </c>
+      <c r="G31" s="15">
+        <v>148116</v>
+      </c>
+      <c r="H31" s="15">
+        <v>194185</v>
+      </c>
+      <c r="I31" s="15">
         <v>217650</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>231734</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>213560</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>258452</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>361644</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>153800</v>
+      </c>
+      <c r="E32" s="11">
+        <v>121480</v>
+      </c>
+      <c r="F32" s="11">
+        <v>117312</v>
+      </c>
+      <c r="G32" s="11">
+        <v>126420</v>
+      </c>
+      <c r="H32" s="11">
+        <v>121244</v>
+      </c>
+      <c r="I32" s="11">
         <v>267592</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>208189</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>249212</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>302473</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>328276</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>166310</v>
+      </c>
+      <c r="E33" s="15">
+        <v>63969</v>
+      </c>
+      <c r="F33" s="15">
+        <v>30624</v>
+      </c>
+      <c r="G33" s="15">
+        <v>734924</v>
+      </c>
+      <c r="H33" s="15">
+        <v>338241</v>
+      </c>
+      <c r="I33" s="15">
         <v>35318</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>30468</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>1482981</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>930552</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>19839</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>112112</v>
+      </c>
+      <c r="H34" s="11">
+        <v>241765</v>
+      </c>
+      <c r="I34" s="11">
         <v>208828</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>143616</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>199726</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>230302</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>269921</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>927400</v>
+      </c>
+      <c r="E37" s="17">
+        <v>711701</v>
+      </c>
+      <c r="F37" s="17">
+        <v>587963</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1550224</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1315027</v>
+      </c>
+      <c r="I37" s="17">
         <v>1117972</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>1358377</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>2710376</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>2414267</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>1905461</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,31 +1887,61 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>47914</v>
+      </c>
+      <c r="E41" s="15">
+        <v>50212</v>
+      </c>
+      <c r="F41" s="15">
+        <v>48818</v>
+      </c>
+      <c r="G41" s="15">
+        <v>66392</v>
+      </c>
+      <c r="H41" s="15">
+        <v>68333</v>
+      </c>
+      <c r="I41" s="15">
         <v>70179</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>69770</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>113008</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>116541</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>120526</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>47914</v>
+      </c>
+      <c r="E42" s="19">
+        <v>50212</v>
+      </c>
+      <c r="F42" s="19">
+        <v>48818</v>
+      </c>
+      <c r="G42" s="19">
+        <v>66392</v>
+      </c>
+      <c r="H42" s="19">
+        <v>68333</v>
+      </c>
+      <c r="I42" s="19">
         <v>70179</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>69770</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>113008</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>116541</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>120526</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>975314</v>
+      </c>
+      <c r="E43" s="17">
+        <v>761913</v>
+      </c>
+      <c r="F43" s="17">
+        <v>636781</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1616616</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1383360</v>
+      </c>
+      <c r="I43" s="17">
         <v>1188151</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>1428147</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>2823384</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>2530808</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>2025987</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,10 +2093,15 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1535,12 +2117,27 @@
         <v>125000</v>
       </c>
       <c r="H45" s="15">
+        <v>125000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>125000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>125000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>125000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>125000</v>
+      </c>
+      <c r="M45" s="15">
         <v>200000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1571,60 +2183,105 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
         <v>75000</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>75000</v>
       </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-128891</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <v>-92194</v>
       </c>
-      <c r="E48" s="11">
+      <c r="I48" s="11">
+        <v>-92194</v>
+      </c>
+      <c r="J48" s="11">
         <v>-74120</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-50442</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-63080</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-100563</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
+        <v>0</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
         <v>-40214</v>
       </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>-40214</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -1642,10 +2299,25 @@
       <c r="H50" s="11">
         <v>12500</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="11">
+        <v>12500</v>
+      </c>
+      <c r="J50" s="11">
+        <v>12500</v>
+      </c>
+      <c r="K50" s="11">
+        <v>12500</v>
+      </c>
+      <c r="L50" s="11">
+        <v>12500</v>
+      </c>
+      <c r="M50" s="11">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>450736</v>
+      </c>
+      <c r="E56" s="11">
+        <v>700411</v>
+      </c>
+      <c r="F56" s="11">
+        <v>971972</v>
+      </c>
+      <c r="G56" s="11">
+        <v>358728</v>
+      </c>
+      <c r="H56" s="11">
+        <v>735252</v>
+      </c>
+      <c r="I56" s="11">
         <v>1213822</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>1614012</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>681709</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>1180734</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>1840753</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>588236</v>
+      </c>
+      <c r="E57" s="17">
+        <v>837911</v>
+      </c>
+      <c r="F57" s="17">
+        <v>980581</v>
+      </c>
+      <c r="G57" s="17">
+        <v>496228</v>
+      </c>
+      <c r="H57" s="17">
+        <v>740344</v>
+      </c>
+      <c r="I57" s="17">
         <v>1218914</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>1677392</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>843767</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>1330154</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>1952690</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>1563550</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1599824</v>
+      </c>
+      <c r="F58" s="19">
+        <v>1617362</v>
+      </c>
+      <c r="G58" s="19">
+        <v>2112844</v>
+      </c>
+      <c r="H58" s="19">
+        <v>2123704</v>
+      </c>
+      <c r="I58" s="19">
         <v>2407065</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>3105539</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>3667151</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>3860962</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>3978677</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhash/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekhash/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF724C7C-9438-4B52-BD07-D9B854C193E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A1C2F-192B-40AD-8591-1B87CA198CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-08-10 (2)</t>
-  </si>
-  <si>
     <t>1399-10-27</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-13 (9)</t>
   </si>
   <si>
     <t>1401-04-26 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-13 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,196 +952,196 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>36151</v>
+        <v>61184</v>
       </c>
       <c r="E12" s="15">
-        <v>61184</v>
+        <v>76456</v>
       </c>
       <c r="F12" s="15">
-        <v>76456</v>
+        <v>228797</v>
       </c>
       <c r="G12" s="15">
-        <v>228797</v>
+        <v>192186</v>
       </c>
       <c r="H12" s="15">
-        <v>192186</v>
+        <v>213585</v>
       </c>
       <c r="I12" s="15">
-        <v>213585</v>
+        <v>118011</v>
       </c>
       <c r="J12" s="15">
-        <v>118011</v>
+        <v>367381</v>
       </c>
       <c r="K12" s="15">
-        <v>367381</v>
+        <v>221193</v>
       </c>
       <c r="L12" s="15">
-        <v>221193</v>
+        <v>289341</v>
       </c>
       <c r="M12" s="15">
-        <v>289341</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>51199</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>395656</v>
+        <v>339656</v>
       </c>
       <c r="E13" s="11">
-        <v>339656</v>
+        <v>396156</v>
       </c>
       <c r="F13" s="11">
-        <v>396156</v>
+        <v>496156</v>
       </c>
       <c r="G13" s="11">
         <v>496156</v>
       </c>
       <c r="H13" s="11">
-        <v>496156</v>
+        <v>646156</v>
       </c>
       <c r="I13" s="11">
-        <v>646156</v>
+        <v>698811</v>
       </c>
       <c r="J13" s="11">
-        <v>698811</v>
+        <v>543811</v>
       </c>
       <c r="K13" s="11">
-        <v>543811</v>
+        <v>555052</v>
       </c>
       <c r="L13" s="11">
-        <v>555052</v>
+        <v>480194</v>
       </c>
       <c r="M13" s="11">
-        <v>480194</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>616802</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>185360</v>
+        <v>307377</v>
       </c>
       <c r="E14" s="15">
-        <v>307377</v>
+        <v>115674</v>
       </c>
       <c r="F14" s="15">
-        <v>115674</v>
+        <v>124936</v>
       </c>
       <c r="G14" s="15">
-        <v>124936</v>
+        <v>172863</v>
       </c>
       <c r="H14" s="15">
-        <v>172863</v>
+        <v>110330</v>
       </c>
       <c r="I14" s="15">
-        <v>110330</v>
+        <v>95327</v>
       </c>
       <c r="J14" s="15">
-        <v>95327</v>
+        <v>98786</v>
       </c>
       <c r="K14" s="15">
-        <v>98786</v>
+        <v>128427</v>
       </c>
       <c r="L14" s="15">
-        <v>128427</v>
+        <v>98949</v>
       </c>
       <c r="M14" s="15">
-        <v>98949</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>80455</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>520254</v>
+        <v>382473</v>
       </c>
       <c r="E15" s="11">
-        <v>382473</v>
+        <v>429945</v>
       </c>
       <c r="F15" s="11">
-        <v>429945</v>
+        <v>449427</v>
       </c>
       <c r="G15" s="11">
-        <v>449427</v>
+        <v>697170</v>
       </c>
       <c r="H15" s="11">
-        <v>697170</v>
+        <v>907565</v>
       </c>
       <c r="I15" s="11">
-        <v>907565</v>
+        <v>1151235</v>
       </c>
       <c r="J15" s="11">
-        <v>1151235</v>
+        <v>1387037</v>
       </c>
       <c r="K15" s="11">
-        <v>1387037</v>
+        <v>1557348</v>
       </c>
       <c r="L15" s="11">
-        <v>1557348</v>
+        <v>1872385</v>
       </c>
       <c r="M15" s="11">
-        <v>1872385</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2014513</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>48946</v>
+        <v>85484</v>
       </c>
       <c r="E16" s="15">
-        <v>85484</v>
+        <v>213548</v>
       </c>
       <c r="F16" s="15">
-        <v>213548</v>
+        <v>246456</v>
       </c>
       <c r="G16" s="15">
-        <v>246456</v>
+        <v>151785</v>
       </c>
       <c r="H16" s="15">
-        <v>151785</v>
+        <v>101463</v>
       </c>
       <c r="I16" s="15">
-        <v>101463</v>
+        <v>200669</v>
       </c>
       <c r="J16" s="15">
-        <v>200669</v>
+        <v>188894</v>
       </c>
       <c r="K16" s="15">
-        <v>188894</v>
+        <v>117700</v>
       </c>
       <c r="L16" s="15">
-        <v>117700</v>
+        <v>102638</v>
       </c>
       <c r="M16" s="15">
-        <v>102638</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>210733</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
         <v>743</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>743</v>
@@ -1167,100 +1168,100 @@
         <v>743</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1187110</v>
+        <v>1176174</v>
       </c>
       <c r="E18" s="17">
-        <v>1176174</v>
+        <v>1232522</v>
       </c>
       <c r="F18" s="17">
-        <v>1232522</v>
+        <v>1546515</v>
       </c>
       <c r="G18" s="17">
-        <v>1546515</v>
+        <v>1710903</v>
       </c>
       <c r="H18" s="17">
-        <v>1710903</v>
+        <v>1979842</v>
       </c>
       <c r="I18" s="17">
-        <v>1979842</v>
+        <v>2264796</v>
       </c>
       <c r="J18" s="17">
-        <v>2264796</v>
+        <v>2586652</v>
       </c>
       <c r="K18" s="17">
-        <v>2586652</v>
+        <v>2580463</v>
       </c>
       <c r="L18" s="17">
-        <v>2580463</v>
+        <v>2844250</v>
       </c>
       <c r="M18" s="17">
-        <v>2844250</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2974445</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>14374</v>
+        <v>17914</v>
       </c>
       <c r="E19" s="11">
-        <v>17914</v>
+        <v>16050</v>
       </c>
       <c r="F19" s="11">
-        <v>16050</v>
+        <v>10309</v>
       </c>
       <c r="G19" s="11">
-        <v>10309</v>
+        <v>16646</v>
       </c>
       <c r="H19" s="11">
-        <v>16646</v>
+        <v>17961</v>
       </c>
       <c r="I19" s="11">
-        <v>17961</v>
+        <v>22992</v>
       </c>
       <c r="J19" s="11">
-        <v>22992</v>
+        <v>24854</v>
       </c>
       <c r="K19" s="11">
-        <v>24854</v>
+        <v>29373</v>
       </c>
       <c r="L19" s="11">
-        <v>29373</v>
+        <v>30073</v>
       </c>
       <c r="M19" s="11">
-        <v>30073</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>36874</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>50062</v>
+      </c>
+      <c r="E20" s="15">
         <v>4638</v>
       </c>
-      <c r="E20" s="15">
-        <v>50062</v>
-      </c>
       <c r="F20" s="15">
+        <v>195546</v>
+      </c>
+      <c r="G20" s="15">
         <v>4638</v>
-      </c>
-      <c r="G20" s="15">
-        <v>195546</v>
       </c>
       <c r="H20" s="15">
         <v>4638</v>
       </c>
       <c r="I20" s="15">
-        <v>4638</v>
+        <v>4867</v>
       </c>
       <c r="J20" s="15">
         <v>4867</v>
@@ -1275,7 +1276,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>347973</v>
+        <v>346227</v>
       </c>
       <c r="E22" s="15">
-        <v>346227</v>
+        <v>354705</v>
       </c>
       <c r="F22" s="15">
-        <v>354705</v>
+        <v>350867</v>
       </c>
       <c r="G22" s="15">
-        <v>350867</v>
+        <v>373275</v>
       </c>
       <c r="H22" s="15">
-        <v>373275</v>
+        <v>386396</v>
       </c>
       <c r="I22" s="15">
-        <v>386396</v>
+        <v>788445</v>
       </c>
       <c r="J22" s="15">
-        <v>788445</v>
+        <v>1032546</v>
       </c>
       <c r="K22" s="15">
-        <v>1032546</v>
+        <v>1215938</v>
       </c>
       <c r="L22" s="15">
-        <v>1215938</v>
+        <v>1070967</v>
       </c>
       <c r="M22" s="15">
-        <v>1070967</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1331920</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>9455</v>
+        <v>9447</v>
       </c>
       <c r="E23" s="11">
         <v>9447</v>
       </c>
       <c r="F23" s="11">
-        <v>9447</v>
+        <v>9607</v>
       </c>
       <c r="G23" s="11">
-        <v>9607</v>
+        <v>18242</v>
       </c>
       <c r="H23" s="11">
-        <v>18242</v>
+        <v>18228</v>
       </c>
       <c r="I23" s="11">
-        <v>18228</v>
+        <v>24439</v>
       </c>
       <c r="J23" s="11">
-        <v>24439</v>
+        <v>18232</v>
       </c>
       <c r="K23" s="11">
-        <v>18232</v>
+        <v>30321</v>
       </c>
       <c r="L23" s="11">
-        <v>30321</v>
+        <v>28520</v>
       </c>
       <c r="M23" s="11">
-        <v>28520</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>26707</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>376440</v>
+        <v>423650</v>
       </c>
       <c r="E26" s="17">
-        <v>423650</v>
+        <v>384840</v>
       </c>
       <c r="F26" s="17">
-        <v>384840</v>
+        <v>566329</v>
       </c>
       <c r="G26" s="17">
-        <v>566329</v>
+        <v>412801</v>
       </c>
       <c r="H26" s="17">
-        <v>412801</v>
+        <v>427223</v>
       </c>
       <c r="I26" s="17">
-        <v>427223</v>
+        <v>840743</v>
       </c>
       <c r="J26" s="17">
-        <v>840743</v>
+        <v>1080499</v>
       </c>
       <c r="K26" s="17">
-        <v>1080499</v>
+        <v>1280499</v>
       </c>
       <c r="L26" s="17">
-        <v>1280499</v>
+        <v>1134427</v>
       </c>
       <c r="M26" s="17">
-        <v>1134427</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1400368</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1563550</v>
+        <v>1599824</v>
       </c>
       <c r="E27" s="19">
-        <v>1599824</v>
+        <v>1617362</v>
       </c>
       <c r="F27" s="19">
-        <v>1617362</v>
+        <v>2112844</v>
       </c>
       <c r="G27" s="19">
-        <v>2112844</v>
+        <v>2123704</v>
       </c>
       <c r="H27" s="19">
-        <v>2123704</v>
+        <v>2407065</v>
       </c>
       <c r="I27" s="19">
-        <v>2407065</v>
+        <v>3105539</v>
       </c>
       <c r="J27" s="19">
-        <v>3105539</v>
+        <v>3667151</v>
       </c>
       <c r="K27" s="19">
-        <v>3667151</v>
+        <v>3860962</v>
       </c>
       <c r="L27" s="19">
-        <v>3860962</v>
+        <v>3978677</v>
       </c>
       <c r="M27" s="19">
-        <v>3978677</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4374813</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>483705</v>
+        <v>414729</v>
       </c>
       <c r="E29" s="15">
-        <v>414729</v>
+        <v>274738</v>
       </c>
       <c r="F29" s="15">
-        <v>274738</v>
+        <v>428652</v>
       </c>
       <c r="G29" s="15">
-        <v>428652</v>
+        <v>419592</v>
       </c>
       <c r="H29" s="15">
-        <v>419592</v>
+        <v>388584</v>
       </c>
       <c r="I29" s="15">
-        <v>388584</v>
+        <v>744370</v>
       </c>
       <c r="J29" s="15">
-        <v>744370</v>
+        <v>564897</v>
       </c>
       <c r="K29" s="15">
-        <v>564897</v>
+        <v>692488</v>
       </c>
       <c r="L29" s="15">
-        <v>692488</v>
+        <v>925781</v>
       </c>
       <c r="M29" s="15">
-        <v>925781</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>911813</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,115 +1616,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>123585</v>
+        <v>111523</v>
       </c>
       <c r="E31" s="15">
-        <v>111523</v>
+        <v>165289</v>
       </c>
       <c r="F31" s="15">
-        <v>165289</v>
+        <v>148116</v>
       </c>
       <c r="G31" s="15">
-        <v>148116</v>
+        <v>194185</v>
       </c>
       <c r="H31" s="15">
-        <v>194185</v>
+        <v>217650</v>
       </c>
       <c r="I31" s="15">
-        <v>217650</v>
+        <v>231734</v>
       </c>
       <c r="J31" s="15">
-        <v>231734</v>
+        <v>213560</v>
       </c>
       <c r="K31" s="15">
-        <v>213560</v>
+        <v>258452</v>
       </c>
       <c r="L31" s="15">
-        <v>258452</v>
+        <v>361644</v>
       </c>
       <c r="M31" s="15">
-        <v>361644</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>309502</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>153800</v>
+        <v>121480</v>
       </c>
       <c r="E32" s="11">
-        <v>121480</v>
+        <v>117312</v>
       </c>
       <c r="F32" s="11">
-        <v>117312</v>
+        <v>126420</v>
       </c>
       <c r="G32" s="11">
-        <v>126420</v>
+        <v>121244</v>
       </c>
       <c r="H32" s="11">
-        <v>121244</v>
+        <v>267592</v>
       </c>
       <c r="I32" s="11">
-        <v>267592</v>
+        <v>208189</v>
       </c>
       <c r="J32" s="11">
-        <v>208189</v>
+        <v>249212</v>
       </c>
       <c r="K32" s="11">
-        <v>249212</v>
+        <v>302473</v>
       </c>
       <c r="L32" s="11">
-        <v>302473</v>
+        <v>328276</v>
       </c>
       <c r="M32" s="11">
-        <v>328276</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>267029</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>166310</v>
+        <v>63969</v>
       </c>
       <c r="E33" s="15">
-        <v>63969</v>
+        <v>30624</v>
       </c>
       <c r="F33" s="15">
-        <v>30624</v>
+        <v>734924</v>
       </c>
       <c r="G33" s="15">
-        <v>734924</v>
+        <v>338241</v>
       </c>
       <c r="H33" s="15">
-        <v>338241</v>
+        <v>35318</v>
       </c>
       <c r="I33" s="15">
-        <v>35318</v>
+        <v>30468</v>
       </c>
       <c r="J33" s="15">
-        <v>30468</v>
+        <v>1482981</v>
       </c>
       <c r="K33" s="15">
-        <v>1482981</v>
+        <v>930552</v>
       </c>
       <c r="L33" s="15">
-        <v>930552</v>
+        <v>19839</v>
       </c>
       <c r="M33" s="15">
-        <v>19839</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1735,31 +1736,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>112112</v>
       </c>
       <c r="G34" s="11">
-        <v>112112</v>
+        <v>241765</v>
       </c>
       <c r="H34" s="11">
-        <v>241765</v>
+        <v>208828</v>
       </c>
       <c r="I34" s="11">
-        <v>208828</v>
+        <v>143616</v>
       </c>
       <c r="J34" s="11">
-        <v>143616</v>
+        <v>199726</v>
       </c>
       <c r="K34" s="11">
-        <v>199726</v>
+        <v>230302</v>
       </c>
       <c r="L34" s="11">
-        <v>230302</v>
+        <v>269921</v>
       </c>
       <c r="M34" s="11">
-        <v>269921</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>128528</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>927400</v>
+        <v>711701</v>
       </c>
       <c r="E37" s="17">
-        <v>711701</v>
+        <v>587963</v>
       </c>
       <c r="F37" s="17">
-        <v>587963</v>
+        <v>1550224</v>
       </c>
       <c r="G37" s="17">
-        <v>1550224</v>
+        <v>1315027</v>
       </c>
       <c r="H37" s="17">
-        <v>1315027</v>
+        <v>1117972</v>
       </c>
       <c r="I37" s="17">
-        <v>1117972</v>
+        <v>1358377</v>
       </c>
       <c r="J37" s="17">
-        <v>1358377</v>
+        <v>2710376</v>
       </c>
       <c r="K37" s="17">
-        <v>2710376</v>
+        <v>2414267</v>
       </c>
       <c r="L37" s="17">
-        <v>2414267</v>
+        <v>1905461</v>
       </c>
       <c r="M37" s="17">
-        <v>1905461</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1636268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,115 +1976,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>47914</v>
+        <v>50212</v>
       </c>
       <c r="E41" s="15">
-        <v>50212</v>
+        <v>48818</v>
       </c>
       <c r="F41" s="15">
-        <v>48818</v>
+        <v>66392</v>
       </c>
       <c r="G41" s="15">
-        <v>66392</v>
+        <v>68333</v>
       </c>
       <c r="H41" s="15">
-        <v>68333</v>
+        <v>70179</v>
       </c>
       <c r="I41" s="15">
-        <v>70179</v>
+        <v>69770</v>
       </c>
       <c r="J41" s="15">
-        <v>69770</v>
+        <v>113008</v>
       </c>
       <c r="K41" s="15">
-        <v>113008</v>
+        <v>116541</v>
       </c>
       <c r="L41" s="15">
-        <v>116541</v>
+        <v>120526</v>
       </c>
       <c r="M41" s="15">
-        <v>120526</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>131294</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>47914</v>
+        <v>50212</v>
       </c>
       <c r="E42" s="19">
-        <v>50212</v>
+        <v>48818</v>
       </c>
       <c r="F42" s="19">
-        <v>48818</v>
+        <v>66392</v>
       </c>
       <c r="G42" s="19">
-        <v>66392</v>
+        <v>68333</v>
       </c>
       <c r="H42" s="19">
-        <v>68333</v>
+        <v>70179</v>
       </c>
       <c r="I42" s="19">
-        <v>70179</v>
+        <v>69770</v>
       </c>
       <c r="J42" s="19">
-        <v>69770</v>
+        <v>113008</v>
       </c>
       <c r="K42" s="19">
-        <v>113008</v>
+        <v>116541</v>
       </c>
       <c r="L42" s="19">
-        <v>116541</v>
+        <v>120526</v>
       </c>
       <c r="M42" s="19">
-        <v>120526</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>131294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>975314</v>
+        <v>761913</v>
       </c>
       <c r="E43" s="17">
-        <v>761913</v>
+        <v>636781</v>
       </c>
       <c r="F43" s="17">
-        <v>636781</v>
+        <v>1616616</v>
       </c>
       <c r="G43" s="17">
-        <v>1616616</v>
+        <v>1383360</v>
       </c>
       <c r="H43" s="17">
-        <v>1383360</v>
+        <v>1188151</v>
       </c>
       <c r="I43" s="17">
-        <v>1188151</v>
+        <v>1428147</v>
       </c>
       <c r="J43" s="17">
-        <v>1428147</v>
+        <v>2823384</v>
       </c>
       <c r="K43" s="17">
-        <v>2823384</v>
+        <v>2530808</v>
       </c>
       <c r="L43" s="17">
-        <v>2530808</v>
+        <v>2025987</v>
       </c>
       <c r="M43" s="17">
-        <v>2025987</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1767562</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2129,13 +2130,13 @@
         <v>125000</v>
       </c>
       <c r="L45" s="15">
-        <v>125000</v>
+        <v>200000</v>
       </c>
       <c r="M45" s="15">
         <v>200000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2195,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="15">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="K47" s="15">
         <v>75000</v>
       </c>
       <c r="L47" s="15">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="M47" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2216,34 +2217,34 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-128891</v>
       </c>
       <c r="F48" s="11">
-        <v>-128891</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-92194</v>
       </c>
       <c r="H48" s="11">
         <v>-92194</v>
       </c>
       <c r="I48" s="11">
-        <v>-92194</v>
+        <v>-74120</v>
       </c>
       <c r="J48" s="11">
-        <v>-74120</v>
+        <v>-50442</v>
       </c>
       <c r="K48" s="11">
-        <v>-50442</v>
+        <v>-63080</v>
       </c>
       <c r="L48" s="11">
-        <v>-63080</v>
+        <v>-100563</v>
       </c>
       <c r="M48" s="11">
-        <v>-100563</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-119179</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2258,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="15">
-        <v>0</v>
+        <v>-40214</v>
       </c>
       <c r="H49" s="15">
         <v>-40214</v>
       </c>
       <c r="I49" s="15">
-        <v>-40214</v>
+        <v>0</v>
       </c>
       <c r="J49" s="15">
         <v>0</v>
@@ -2279,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2312,10 +2313,10 @@
         <v>12500</v>
       </c>
       <c r="M50" s="11">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>450736</v>
+        <v>700411</v>
       </c>
       <c r="E56" s="11">
-        <v>700411</v>
+        <v>971972</v>
       </c>
       <c r="F56" s="11">
-        <v>971972</v>
+        <v>358728</v>
       </c>
       <c r="G56" s="11">
-        <v>358728</v>
+        <v>735252</v>
       </c>
       <c r="H56" s="11">
-        <v>735252</v>
+        <v>1213822</v>
       </c>
       <c r="I56" s="11">
-        <v>1213822</v>
+        <v>1614012</v>
       </c>
       <c r="J56" s="11">
-        <v>1614012</v>
+        <v>681709</v>
       </c>
       <c r="K56" s="11">
-        <v>681709</v>
+        <v>1180734</v>
       </c>
       <c r="L56" s="11">
-        <v>1180734</v>
+        <v>1840753</v>
       </c>
       <c r="M56" s="11">
-        <v>1840753</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2506430</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>588236</v>
+        <v>837911</v>
       </c>
       <c r="E57" s="17">
-        <v>837911</v>
+        <v>980581</v>
       </c>
       <c r="F57" s="17">
-        <v>980581</v>
+        <v>496228</v>
       </c>
       <c r="G57" s="17">
-        <v>496228</v>
+        <v>740344</v>
       </c>
       <c r="H57" s="17">
-        <v>740344</v>
+        <v>1218914</v>
       </c>
       <c r="I57" s="17">
-        <v>1218914</v>
+        <v>1677392</v>
       </c>
       <c r="J57" s="17">
-        <v>1677392</v>
+        <v>843767</v>
       </c>
       <c r="K57" s="17">
-        <v>843767</v>
+        <v>1330154</v>
       </c>
       <c r="L57" s="17">
-        <v>1330154</v>
+        <v>1952690</v>
       </c>
       <c r="M57" s="17">
-        <v>1952690</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2607251</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1563550</v>
+        <v>1599824</v>
       </c>
       <c r="E58" s="19">
-        <v>1599824</v>
+        <v>1617362</v>
       </c>
       <c r="F58" s="19">
-        <v>1617362</v>
+        <v>2112844</v>
       </c>
       <c r="G58" s="19">
-        <v>2112844</v>
+        <v>2123704</v>
       </c>
       <c r="H58" s="19">
-        <v>2123704</v>
+        <v>2407065</v>
       </c>
       <c r="I58" s="19">
-        <v>2407065</v>
+        <v>3105539</v>
       </c>
       <c r="J58" s="19">
-        <v>3105539</v>
+        <v>3667151</v>
       </c>
       <c r="K58" s="19">
-        <v>3667151</v>
+        <v>3860962</v>
       </c>
       <c r="L58" s="19">
-        <v>3860962</v>
+        <v>3978677</v>
       </c>
       <c r="M58" s="19">
-        <v>3978677</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4374813</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
